--- a/Задание №1 (1 вариант)/Нормализация.xlsx
+++ b/Задание №1 (1 вариант)/Нормализация.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="danil"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20412"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TestTask-Backend\Задание №1 (1 вариант)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E41D9-1DE4-43FA-9F1B-EF45EC30714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1722959226" val="1215" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>Требования к базе данных:
 1. Один и тот же курс может проводиться несколько раз.
@@ -106,71 +111,40 @@
   <si>
     <t>3НФ</t>
   </si>
+  <si>
+    <t>Чтобы убрать зацикленность, было решено убрать атрибут "ID расписания" из этой зависимости</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="DD/MM/YYYY;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722959226" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722959226" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722959226" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,131 +155,57 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3DFF3D"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722959226" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722959226" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722959226"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722959226"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722959226"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722959226">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1722959226" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
@@ -574,470 +474,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="16.351351" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="n">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>201</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2">
         <v>45292</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2">
         <v>45323</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>301</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="8:9">
-      <c r="H13" t="n">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H13">
         <v>302</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="n">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>202</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2">
         <v>45306</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2">
         <v>45337</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>301</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="8:9">
-      <c r="H15" t="n">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H15">
         <v>303</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="n">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>203</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2">
         <v>45352</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2">
         <v>45383</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>25</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>303</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
-      <c r="H17" t="n">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H17">
         <v>304</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="D45" s="3"/>
+      <c r="E45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F8"/>
   </mergeCells>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722959226" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722959226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722959226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1722959226" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
